--- a/Fall_2020/Example Analyses/ExampleData.xlsx
+++ b/Fall_2020/Example Analyses/ExampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweitzer/Documents/GitHub/Comm3163/Fall_2020/Example Analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBFB959-37BD-2E4C-8328-716C5D11793B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B12EC-DED9-F440-99B6-BA164A93118B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" activeTab="1" xr2:uid="{D9941AD4-F713-6E4F-8CD1-67767A3A092A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{D9941AD4-F713-6E4F-8CD1-67767A3A092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey_Results" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Participant</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>Frequency Tables</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -69,7 +66,28 @@
     <t>Cumulative_Percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Frequency tables are useful for understanding how </t>
+    <t>Hours_NFL_Cat</t>
+  </si>
+  <si>
+    <t>Hours_NCAA_Cat</t>
+  </si>
+  <si>
+    <t>#2 Frequency Table</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -93,14 +111,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -112,16 +122,29 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -138,25 +161,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,18 +641,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EB25B3-22B1-0E43-A7BD-63B64C20BF34}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
+    <col min="1" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,10 +666,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -513,11 +688,16 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="str">
+        <f>IF(D2&lt;=3, "Low", IF(D2&lt;=9, "Medium", "High"))</f>
+        <v>Low</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -530,11 +710,16 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:G16" si="0">IF(D3&lt;=3, "Low", IF(D3&lt;=9, "Medium", "High"))</f>
+        <v>Low</v>
+      </c>
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -547,11 +732,16 @@
       <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="F4" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -564,11 +754,16 @@
       <c r="D5" s="1">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -581,11 +776,16 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -598,11 +798,16 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -615,11 +820,16 @@
       <c r="D8" s="1">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -632,11 +842,16 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -649,11 +864,16 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -666,11 +886,16 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -683,11 +908,16 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -700,11 +930,16 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -717,11 +952,13 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -734,11 +971,13 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -751,9 +990,11 @@
       <c r="D16" s="1">
         <v>12</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,81 +1004,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EC8CD-275D-C349-8366-3AC677943A4F}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="13" width="25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="3:16" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="26"/>
+      <c r="J1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="3:16" ht="26" x14ac:dyDescent="0.3">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="3:16" ht="22" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="27"/>
+      <c r="J4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="28"/>
+      <c r="J5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="K5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="M5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f>COUNTIF(Survey_Results!C2:C16, "Ohio")</f>
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/SUM(C5:C6)</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="E5" s="6">
-        <f>D5</f>
-        <v>0.53333333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="3:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="29"/>
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <f>COUNTIF(Survey_Results!C2:C16, "Michigan")</f>
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/SUM(C5:C6)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="E6" s="6">
-        <f>SUM(D5:D6)</f>
-        <v>1</v>
-      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="3:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Fall_2020/Example Analyses/ExampleData.xlsx
+++ b/Fall_2020/Example Analyses/ExampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweitzer/Documents/GitHub/Comm3163/Fall_2020/Example Analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B12EC-DED9-F440-99B6-BA164A93118B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8468CC51-3F01-B64B-8BF7-40A90DDF099D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{D9941AD4-F713-6E4F-8CD1-67767A3A092A}"/>
+    <workbookView xWindow="6340" yWindow="7280" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D9941AD4-F713-6E4F-8CD1-67767A3A092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey_Results" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Participant</t>
   </si>
@@ -72,15 +72,6 @@
     <t>Hours_NCAA_Cat</t>
   </si>
   <si>
-    <t>#2 Frequency Table</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>Practice</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -88,13 +79,19 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Example Frequency Table</t>
+  </si>
+  <si>
+    <t>Practice Frequency Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,13 +115,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -268,12 +258,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,11 +273,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,22 +283,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +294,16 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EB25B3-22B1-0E43-A7BD-63B64C20BF34}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,25 +631,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -711,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:G16" si="0">IF(D3&lt;=3, "Low", IF(D3&lt;=9, "Medium", "High"))</f>
+        <f t="shared" ref="E3:E16" si="0">IF(D3&lt;=3, "Low", IF(D3&lt;=9, "Medium", "High"))</f>
         <v>Low</v>
       </c>
       <c r="F3" s="1">
@@ -864,10 +842,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>0</v>
       </c>
@@ -886,10 +861,7 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>2</v>
       </c>
@@ -908,10 +880,7 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>5</v>
       </c>
@@ -930,10 +899,7 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Low</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>6</v>
       </c>
@@ -995,6 +961,9 @@
         <v>0</v>
       </c>
       <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,154 +973,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EC8CD-275D-C349-8366-3AC677943A4F}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="6" width="25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="29.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="11" width="29.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="26" x14ac:dyDescent="0.3">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="H1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <f>COUNTIF(Survey_Results!E2:E16, "Low")</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3/SUM(B3:B5)</f>
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="7">
+        <f>SUM(C3)</f>
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="26"/>
-      <c r="J1" s="13" t="s">
+      <c r="B4" s="5">
+        <f>COUNTIF(Survey_Results!E2:E16, "Medium")</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4/SUM(B3:B5)</f>
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(C3:C4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="19"/>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="3:16" ht="26" x14ac:dyDescent="0.3">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="3:16" ht="22" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27"/>
-      <c r="J4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="28"/>
-      <c r="J5" s="20" t="s">
+      <c r="B5" s="9">
+        <f>COUNTIF(Survey_Results!E2:E16, "High")</f>
         <v>2</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="3:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="29"/>
-      <c r="J7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="3:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="30"/>
+      <c r="C5" s="10">
+        <f>B5/SUM(B3:B5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUM(C3:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="C4:F4"/>
+  <mergeCells count="2">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Fall_2020/Example Analyses/ExampleData.xlsx
+++ b/Fall_2020/Example Analyses/ExampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweitzer/Documents/GitHub/Comm3163/Fall_2020/Example Analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8468CC51-3F01-B64B-8BF7-40A90DDF099D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D90D70-2CD5-9047-A171-8FD231A30D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="7280" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D9941AD4-F713-6E4F-8CD1-67767A3A092A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{D9941AD4-F713-6E4F-8CD1-67767A3A092A}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey_Results" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>Practice Frequency Table</t>
+  </si>
+  <si>
+    <t>Total_Hours_Both</t>
+  </si>
+  <si>
+    <t>Avg_Hours_Both</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Example Central Tendency</t>
+  </si>
+  <si>
+    <t>Practice Central Tendency</t>
+  </si>
+  <si>
+    <t>Example Dispersion</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Practice Dispersion</t>
   </si>
 </sst>
 </file>
@@ -258,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -267,8 +303,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -302,6 +336,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,351 +686,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EB25B3-22B1-0E43-A7BD-63B64C20BF34}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="25" customWidth="1"/>
+    <col min="1" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="H1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="23">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="str">
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="str">
         <f>IF(D2&lt;=3, "Low", IF(D2&lt;=9, "Medium", "High"))</f>
         <v>Low</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
+        <f>SUM(D2, F2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <f>AVERAGE(D2, F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="23">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="str">
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="str">
         <f t="shared" ref="E3:E16" si="0">IF(D3&lt;=3, "Low", IF(D3&lt;=9, "Medium", "High"))</f>
         <v>Low</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="23">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
+        <f t="shared" ref="H3:H9" si="1">SUM(D3, F3)</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="25">
+        <f t="shared" ref="I3:I9" si="2">AVERAGE(D3, F3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="23">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="23">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="23">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="23">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="23">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="23">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="str">
+      <c r="D6" s="23">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="F6" s="23">
+        <v>5</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="23">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="str">
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Low</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="23">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="23">
         <v>3</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="23">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="str">
+      <c r="C9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23">
+        <v>5</v>
+      </c>
+      <c r="E9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="23">
         <v>10</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="23">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="23">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
         <v>2</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="23">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23">
+        <v>5</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23">
+        <v>5</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="23">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23">
         <v>6</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="23">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="23">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="23">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="24">
         <v>59</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24">
         <v>12</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8EC8CD-275D-C349-8366-3AC677943A4F}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -990,46 +1139,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="18"/>
-      <c r="H2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="22" t="s">
+      <c r="F2" s="16"/>
+      <c r="H2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1037,75 +1186,205 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>COUNTIF(Survey_Results!E2:E16, "Low")</f>
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="26">
         <f>B3/SUM(B3:B5)</f>
         <v>0.375</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="27">
         <f>SUM(C3)</f>
         <v>0.375</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="17"/>
       <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>COUNTIF(Survey_Results!E2:E16, "Medium")</f>
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="26">
         <f>B4/SUM(B3:B5)</f>
         <v>0.375</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="27">
         <f>SUM(C3:C4)</f>
         <v>0.75</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="19"/>
-      <c r="H4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="17"/>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="28">
         <f>COUNTIF(Survey_Results!E2:E16, "High")</f>
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="29">
         <f>B5/SUM(B3:B5)</f>
         <v>0.25</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="30">
         <f>SUM(C3:C5)</f>
         <v>1</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="H7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="28">
+        <f>MODE(Survey_Results!D2:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="31">
+        <f>MEDIAN(Survey_Results!D2:D16)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="32">
+        <f>AVERAGE(Survey_Results!D2:D16)</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="H11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28">
+        <f>MAX(Survey_Results!D2:D16)-MIN(Survey_Results!D2:D16)</f>
+        <v>17</v>
+      </c>
+      <c r="C13" s="33">
+        <f>VAR(Survey_Results!D2:D16)</f>
+        <v>32.55238095238095</v>
+      </c>
+      <c r="D13" s="32">
+        <f>STDEV(Survey_Results!D2:D16)</f>
+        <v>5.7054693893124124</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
